--- a/data/hotels_by_city/Dallas/Dallas_shard_783.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_783.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="123">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,246 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d627514-r541038306-WoodSpring_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>55857</t>
+  </si>
+  <si>
+    <t>627514</t>
+  </si>
+  <si>
+    <t>541038306</t>
+  </si>
+  <si>
+    <t>11/14/2017</t>
+  </si>
+  <si>
+    <t>One Week Stay</t>
+  </si>
+  <si>
+    <t>If you are low on cash but want a place that provides the basics, this is the place to stay. The rooms are not fancy but they have comfortable, clean beds. There is always plenty of very hot water if you want a long shower or bath. The linens are clean. There is a full size refrigerator, two burner stovetop, a microwave and flat screen TV with cable that provides basic channels. Bring some paper plates, cups and cooking utensils. The manager Michael is wonderful, genuinely caring and will go above and beyond to cheerfully provide you with the best service possible. Brandon is the evening attendant and is very pleasant. There are many restaurants and stores close by.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>If you are low on cash but want a place that provides the basics, this is the place to stay. The rooms are not fancy but they have comfortable, clean beds. There is always plenty of very hot water if you want a long shower or bath. The linens are clean. There is a full size refrigerator, two burner stovetop, a microwave and flat screen TV with cable that provides basic channels. Bring some paper plates, cups and cooking utensils. The manager Michael is wonderful, genuinely caring and will go above and beyond to cheerfully provide you with the best service possible. Brandon is the evening attendant and is very pleasant. There are many restaurants and stores close by.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d627514-r488521610-WoodSpring_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>488521610</t>
+  </si>
+  <si>
+    <t>05/28/2017</t>
+  </si>
+  <si>
+    <t>BED BUGS</t>
+  </si>
+  <si>
+    <t>WORSE PLACE i have ever stayed! the day we got home from our trip we discovered we both were covered in bites! Extremely bad bites. BED BUGS! When we called to inform the manager about them , he laughed! Really, dont think its too funny.The rooms were horrible. Not enough chairs, we had one.Didnt know we had to provide our own towels, washcloths, and toilet paper. What kind of place is this? The room hadnt been cleaned when we arrived,grease all over the stove and nasty carpet. never will we stay there again. much nicer places available all over Texas.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d627514-r485697169-WoodSpring_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>485697169</t>
+  </si>
+  <si>
+    <t>05/19/2017</t>
+  </si>
+  <si>
+    <t>great staff! clean rooms!</t>
+  </si>
+  <si>
+    <t>Terrific staff! Hotel is going through a lot of changes right now but I expect changes will be improve the smoking smell on the top floor tremendously. Fairly quiet. Easily accessible from freeway. Near many conveniences.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d627514-r249131785-WoodSpring_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>249131785</t>
+  </si>
+  <si>
+    <t>01/13/2015</t>
+  </si>
+  <si>
+    <t>A Great Place to Stay!!!</t>
+  </si>
+  <si>
+    <t>I had a longer than expected stay at this wonderful little Value Place. The staff is always friendly and Michael is professional, and kind. I would have expected that since my stay was longer than I originally thought I might have had to have a room change or any other unexpected difficulty. Yet Michael and his staff have ensured that I remain in the most comfortable and easy way for me to extend my days. If a week or a day or two.  The rooms are clean, they try to ensure quiet for guests and I have never felt unsafe in any way. This is the BEST place to stay in the area, even some surrounding hotels that cost a bit more cannot compare.   When you add it up , this equals to THE BEST VALUE!Ill be happy to have my new home , but until then Thank you Value Place for a GREAT )PLACE TO STAY !!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Sean A, Owner at WoodSpring Suites Fort Worth Fossil Creek, responded to this reviewResponded February 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2015</t>
+  </si>
+  <si>
+    <t>I had a longer than expected stay at this wonderful little Value Place. The staff is always friendly and Michael is professional, and kind. I would have expected that since my stay was longer than I originally thought I might have had to have a room change or any other unexpected difficulty. Yet Michael and his staff have ensured that I remain in the most comfortable and easy way for me to extend my days. If a week or a day or two.  The rooms are clean, they try to ensure quiet for guests and I have never felt unsafe in any way. This is the BEST place to stay in the area, even some surrounding hotels that cost a bit more cannot compare.   When you add it up , this equals to THE BEST VALUE!Ill be happy to have my new home , but until then Thank you Value Place for a GREAT )PLACE TO STAY !!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d627514-r235436015-WoodSpring_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>235436015</t>
+  </si>
+  <si>
+    <t>10/20/2014</t>
+  </si>
+  <si>
+    <t>A good place to hang your hat, just make sure your a minimalist.</t>
+  </si>
+  <si>
+    <t>Came back to town for a friend's wedding and just needed someplace with a bed and a shower. The rooms are adequate on size, the fridge is full size, and the kitchenette has a full sink and a 2 burner electric stove in the counter. There is a small microwave in the counter above the sink.  If you need dishes, bring your own or buy a "dish pack" from the staff for $35. Want a coffee pot? That's $20, but yours to keep.  I didn't need any extra amenities so I had no problems. There is a reason the prices are so good, there are no frills. No pool, no spa, no gym, no room service, and no housekeeping everyday unless you pay for that. This sounds bad at first, but if you don't want or need it (I didn't) then you can go without and save a little cash.  My only complaint, and one I feel worthy of taking a point for is the bed is VERY HARD. I prefer a stiff bed, but this was non giving and difficult to sleep on. Better than sleeping in the rental car though.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Came back to town for a friend's wedding and just needed someplace with a bed and a shower. The rooms are adequate on size, the fridge is full size, and the kitchenette has a full sink and a 2 burner electric stove in the counter. There is a small microwave in the counter above the sink.  If you need dishes, bring your own or buy a "dish pack" from the staff for $35. Want a coffee pot? That's $20, but yours to keep.  I didn't need any extra amenities so I had no problems. There is a reason the prices are so good, there are no frills. No pool, no spa, no gym, no room service, and no housekeeping everyday unless you pay for that. This sounds bad at first, but if you don't want or need it (I didn't) then you can go without and save a little cash.  My only complaint, and one I feel worthy of taking a point for is the bed is VERY HARD. I prefer a stiff bed, but this was non giving and difficult to sleep on. Better than sleeping in the rental car though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d627514-r233492070-WoodSpring_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>233492070</t>
+  </si>
+  <si>
+    <t>10/09/2014</t>
+  </si>
+  <si>
+    <t>Clean...bring everything with you...EVERYTHING...and expect some rude staff</t>
+  </si>
+  <si>
+    <t>Rooms great...dont agree with cleaning every 2 weeks people dont carry mops brooms and vaccum cleaners with them while traveling....bring your own towels or else they will end up charging you after only exchanging them every 2weeks...And God forbid dont run out of toilet paper and Ask to buy a roll becAuse they will tell you they dont have any extra....yeah right....And some could use an attitude adjustment the front desk. MoreShow less</t>
+  </si>
+  <si>
+    <t>Rooms great...dont agree with cleaning every 2 weeks people dont carry mops brooms and vaccum cleaners with them while traveling....bring your own towels or else they will end up charging you after only exchanging them every 2weeks...And God forbid dont run out of toilet paper and Ask to buy a roll becAuse they will tell you they dont have any extra....yeah right....And some could use an attitude adjustment the front desk. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d627514-r173023904-WoodSpring_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>173023904</t>
+  </si>
+  <si>
+    <t>08/19/2013</t>
+  </si>
+  <si>
+    <t>Highly Recommend</t>
+  </si>
+  <si>
+    <t>I stayed here for about 6 months while I waited on my new home. Adam, Jason and all the staff were always great, friendly and attentive. I was very happy to have found this place for an interim stay. Would definitely recommend! : )</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d627514-r172267905-WoodSpring_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>172267905</t>
+  </si>
+  <si>
+    <t>08/14/2013</t>
+  </si>
+  <si>
+    <t>Value Place always delivers.</t>
+  </si>
+  <si>
+    <t>The staff here is wonderful, I am always greeted with a smile and they are very professional. I was just in MO. on vacation/business and I would have loved to stay at Value Place but couldn't locate one close by. Value Place is the first place I look for when I land.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d627514-r140335334-WoodSpring_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>140335334</t>
+  </si>
+  <si>
+    <t>09/15/2012</t>
+  </si>
+  <si>
+    <t>Personnel made the difference.</t>
+  </si>
+  <si>
+    <t>Price, amenities, cleanliness, were all what I had expected and hoped for. It was the staff that made it above average.  Thoughtful, cheerful and always working!  No slugs at this place.  Not once, not twice but at least three times the staff went out of their way to assist us.  Nice to see now days.  Only thing we had a probelms with was the internet cable situation.  Loved that they had "hard wire" as speed and connectivity are so important to our business.  Only problem is that in order to work effeciently, we use multiple devices so we bring our own "locked" router in order to have wifi.  The hotel's cable set up did not allow for personal wifi use.  Next time we'll call ahead and see if we can arrange to use our own, personally locked wifi access.  Other than that, it was a great experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Price, amenities, cleanliness, were all what I had expected and hoped for. It was the staff that made it above average.  Thoughtful, cheerful and always working!  No slugs at this place.  Not once, not twice but at least three times the staff went out of their way to assist us.  Nice to see now days.  Only thing we had a probelms with was the internet cable situation.  Loved that they had "hard wire" as speed and connectivity are so important to our business.  Only problem is that in order to work effeciently, we use multiple devices so we bring our own "locked" router in order to have wifi.  The hotel's cable set up did not allow for personal wifi use.  Next time we'll call ahead and see if we can arrange to use our own, personally locked wifi access.  Other than that, it was a great experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d627514-r122082704-WoodSpring_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>122082704</t>
+  </si>
+  <si>
+    <t>12/25/2011</t>
+  </si>
+  <si>
+    <t>Pretty crappy!</t>
+  </si>
+  <si>
+    <t>The employees were nice, but the place was crap. They don't even provide you with cooking utensils, plates, cutlery, etc. Did a background check on us before we could check in! The manager working at the time thought it was pretty cool that sometimes strippers check in there. No hand towels, only two bath towels, and two wash cloths. They want you to pay for anything more. The bed was very hard, the linens rough. Scary and weird people were living there. Checked into a Studio Six down the road, which was much, much nicer!!</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d627514-r117811954-WoodSpring_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>117811954</t>
+  </si>
+  <si>
+    <t>09/07/2011</t>
+  </si>
+  <si>
+    <t>Great place for extended stays</t>
+  </si>
+  <si>
+    <t>I've stayed in a couple of Value Places thus far and they never disappoint.  The Manager and all his staff are very friendly and accommodating.  The rooms are clean, simple in design and very functional.  They have a good security system in place as well. This hotel is in a great location surrounded by many restaurants and close enough to see down town Fort Worth without the down town traffic.   I'd highly recommend this place for folks needing extended stays for long events (i.e. Stock Show, NASCAR or MayFest) or trips within Fort Worth and the northwestern side of the Metroplex.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>Kirk H, Director of Sales at WoodSpring Suites Fort Worth Fossil Creek, responded to this reviewResponded September 9, 2011</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2011</t>
+  </si>
+  <si>
+    <t>I've stayed in a couple of Value Places thus far and they never disappoint.  The Manager and all his staff are very friendly and accommodating.  The rooms are clean, simple in design and very functional.  They have a good security system in place as well. This hotel is in a great location surrounded by many restaurants and close enough to see down town Fort Worth without the down town traffic.   I'd highly recommend this place for folks needing extended stays for long events (i.e. Stock Show, NASCAR or MayFest) or trips within Fort Worth and the northwestern side of the Metroplex.More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +885,705 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>55764</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>55764</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>55764</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>55764</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>72</v>
+      </c>
+      <c r="X5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>55764</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>72</v>
+      </c>
+      <c r="X6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>55764</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>72</v>
+      </c>
+      <c r="X7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>55764</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>94</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>55764</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>55764</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>55764</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" t="s">
+        <v>113</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>55764</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>119</v>
+      </c>
+      <c r="O12" t="s">
+        <v>94</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>120</v>
+      </c>
+      <c r="X12" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_783.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_783.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>nightlight50</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t>If you are low on cash but want a place that provides the basics, this is the place to stay. The rooms are not fancy but they have comfortable, clean beds. There is always plenty of very hot water if you want a long shower or bath. The linens are clean. There is a full size refrigerator, two burner stovetop, a microwave and flat screen TV with cable that provides basic channels. Bring some paper plates, cups and cooking utensils. The manager Michael is wonderful, genuinely caring and will go above and beyond to cheerfully provide you with the best service possible. Brandon is the evening attendant and is very pleasant. There are many restaurants and stores close by.More</t>
   </si>
   <si>
+    <t>rebecca5961</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d627514-r488521610-WoodSpring_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Jessalyn P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d627514-r485697169-WoodSpring_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
     <t>Terrific staff! Hotel is going through a lot of changes right now but I expect changes will be improve the smoking smell on the top floor tremendously. Fairly quiet. Easily accessible from freeway. Near many conveniences.</t>
   </si>
   <si>
+    <t>anniegrace2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d627514-r249131785-WoodSpring_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -243,6 +255,9 @@
     <t>I had a longer than expected stay at this wonderful little Value Place. The staff is always friendly and Michael is professional, and kind. I would have expected that since my stay was longer than I originally thought I might have had to have a room change or any other unexpected difficulty. Yet Michael and his staff have ensured that I remain in the most comfortable and easy way for me to extend my days. If a week or a day or two.  The rooms are clean, they try to ensure quiet for guests and I have never felt unsafe in any way. This is the BEST place to stay in the area, even some surrounding hotels that cost a bit more cannot compare.   When you add it up , this equals to THE BEST VALUE!Ill be happy to have my new home , but until then Thank you Value Place for a GREAT )PLACE TO STAY !!!More</t>
   </si>
   <si>
+    <t>Pilotgod</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d627514-r235436015-WoodSpring_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -264,6 +279,9 @@
     <t>Came back to town for a friend's wedding and just needed someplace with a bed and a shower. The rooms are adequate on size, the fridge is full size, and the kitchenette has a full sink and a 2 burner electric stove in the counter. There is a small microwave in the counter above the sink.  If you need dishes, bring your own or buy a "dish pack" from the staff for $35. Want a coffee pot? That's $20, but yours to keep.  I didn't need any extra amenities so I had no problems. There is a reason the prices are so good, there are no frills. No pool, no spa, no gym, no room service, and no housekeeping everyday unless you pay for that. This sounds bad at first, but if you don't want or need it (I didn't) then you can go without and save a little cash.  My only complaint, and one I feel worthy of taking a point for is the bed is VERY HARD. I prefer a stiff bed, but this was non giving and difficult to sleep on. Better than sleeping in the rental car though.More</t>
   </si>
   <si>
+    <t xml:space="preserve">angelbaby1124 </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d627514-r233492070-WoodSpring_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -282,6 +300,9 @@
     <t>Rooms great...dont agree with cleaning every 2 weeks people dont carry mops brooms and vaccum cleaners with them while traveling....bring your own towels or else they will end up charging you after only exchanging them every 2weeks...And God forbid dont run out of toilet paper and Ask to buy a roll becAuse they will tell you they dont have any extra....yeah right....And some could use an attitude adjustment the front desk. More</t>
   </si>
   <si>
+    <t>angelkwill</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d627514-r173023904-WoodSpring_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -303,6 +324,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>SteveCollins1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d627514-r172267905-WoodSpring_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -318,6 +342,9 @@
     <t>The staff here is wonderful, I am always greeted with a smile and they are very professional. I was just in MO. on vacation/business and I would have loved to stay at Value Place but couldn't locate one close by. Value Place is the first place I look for when I land.</t>
   </si>
   <si>
+    <t>Debitthompson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d627514-r140335334-WoodSpring_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -339,6 +366,9 @@
     <t>Price, amenities, cleanliness, were all what I had expected and hoped for. It was the staff that made it above average.  Thoughtful, cheerful and always working!  No slugs at this place.  Not once, not twice but at least three times the staff went out of their way to assist us.  Nice to see now days.  Only thing we had a probelms with was the internet cable situation.  Loved that they had "hard wire" as speed and connectivity are so important to our business.  Only problem is that in order to work effeciently, we use multiple devices so we bring our own "locked" router in order to have wifi.  The hotel's cable set up did not allow for personal wifi use.  Next time we'll call ahead and see if we can arrange to use our own, personally locked wifi access.  Other than that, it was a great experience.More</t>
   </si>
   <si>
+    <t>Julie F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d627514-r122082704-WoodSpring_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -358,6 +388,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>BlueFW</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d627514-r117811954-WoodSpring_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -889,43 +922,47 @@
       <c r="A2" t="n">
         <v>55764</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>182570</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -939,50 +976,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>55764</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>182571</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
@@ -1002,41 +1043,45 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>55764</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>175446</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
@@ -1055,50 +1100,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>55764</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>182572</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -1116,56 +1165,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>55764</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>182573</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1177,47 +1230,51 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>55764</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>182574</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
@@ -1244,56 +1301,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="X7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>55764</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>182575</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -1317,41 +1378,45 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>55764</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>182576</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
@@ -1380,50 +1445,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>55764</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>182577</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -1447,50 +1516,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>55764</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>3981</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="P11" t="n">
         <v>2</v>
@@ -1514,50 +1587,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>55764</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>182578</v>
+      </c>
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="K12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="O12" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -1575,13 +1652,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="X12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="Y12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_783.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_783.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="177">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,63 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>nightlight50</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/29/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d627514-r594636413-WoodSpring_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>55857</t>
+  </si>
+  <si>
+    <t>627514</t>
+  </si>
+  <si>
+    <t>594636413</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>Room feels dirty the moment you walk in</t>
+  </si>
+  <si>
+    <t>After checking in, I took a ride up the elevator (which was overly hot inside to the point of being suffocating). Accessed my room. Very basic furnishings, which didn't bother me too much. However, the smell in the room was a combination of wet dog and stale cigarette smoke. It just lingers. I then went to check out the bathroom. I was greeted by a cockroach roaming around the edge of the sink. The mattress was not comfortable at all. Feels very cheap, worn out and leaning to one side. I found myself fighting throughout the night to not accidentally get rolled off the edge. Traffic racing down the freeway in front can easily be heard at all hours of the day and night. On a positive note, the air conditioner worked well and there are several restaurants nearby. Out of all the hotels I've stayed at, this one ranks in the bottom 10%.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>After checking in, I took a ride up the elevator (which was overly hot inside to the point of being suffocating). Accessed my room. Very basic furnishings, which didn't bother me too much. However, the smell in the room was a combination of wet dog and stale cigarette smoke. It just lingers. I then went to check out the bathroom. I was greeted by a cockroach roaming around the edge of the sink. The mattress was not comfortable at all. Feels very cheap, worn out and leaning to one side. I found myself fighting throughout the night to not accidentally get rolled off the edge. Traffic racing down the freeway in front can easily be heard at all hours of the day and night. On a positive note, the air conditioner worked well and there are several restaurants nearby. Out of all the hotels I've stayed at, this one ranks in the bottom 10%.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d627514-r541480105-WoodSpring_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>541480105</t>
+  </si>
+  <si>
+    <t>11/16/2017</t>
+  </si>
+  <si>
+    <t>Bad Experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bed was uncomfortable.  I could hear through the walls.  I could smell smoke in the halls.  I did not feel safe.  Unfortunately, I prepaid and they would not give me any money back for unused nights.  I checked out early because I was uncomfortable there.  I do not recommend  this hotel at all.  </t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d627514-r541038306-WoodSpring_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
-    <t>55857</t>
-  </si>
-  <si>
-    <t>627514</t>
-  </si>
-  <si>
     <t>541038306</t>
   </si>
   <si>
@@ -174,16 +216,28 @@
     <t>If you are low on cash but want a place that provides the basics, this is the place to stay. The rooms are not fancy but they have comfortable, clean beds. There is always plenty of very hot water if you want a long shower or bath. The linens are clean. There is a full size refrigerator, two burner stovetop, a microwave and flat screen TV with cable that provides basic channels. Bring some paper plates, cups and cooking utensils. The manager Michael is wonderful, genuinely caring and will go above and beyond to cheerfully provide you with the best service possible. Brandon is the evening attendant and is very pleasant. There are many restaurants and stores close by.MoreShow less</t>
   </si>
   <si>
-    <t>November 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>If you are low on cash but want a place that provides the basics, this is the place to stay. The rooms are not fancy but they have comfortable, clean beds. There is always plenty of very hot water if you want a long shower or bath. The linens are clean. There is a full size refrigerator, two burner stovetop, a microwave and flat screen TV with cable that provides basic channels. Bring some paper plates, cups and cooking utensils. The manager Michael is wonderful, genuinely caring and will go above and beyond to cheerfully provide you with the best service possible. Brandon is the evening attendant and is very pleasant. There are many restaurants and stores close by.More</t>
   </si>
   <si>
-    <t>rebecca5961</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d627514-r497758572-WoodSpring_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>497758572</t>
+  </si>
+  <si>
+    <t>07/01/2017</t>
+  </si>
+  <si>
+    <t>Good price for long term</t>
+  </si>
+  <si>
+    <t>the lady at the desk was pleasant and helpful. Was able to view a room before paying. Hotel is nice and clean. Linen was clean, room was clean. Refrigerator was clean. Beds was comfortable. Friendly staff. Near alot of shops. Very impressed with the price and quality of the hotel...will stay again.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d627514-r488521610-WoodSpring_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -204,12 +258,6 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Jessalyn P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d627514-r485697169-WoodSpring_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -225,7 +273,43 @@
     <t>Terrific staff! Hotel is going through a lot of changes right now but I expect changes will be improve the smoking smell on the top floor tremendously. Fairly quiet. Easily accessible from freeway. Near many conveniences.</t>
   </si>
   <si>
-    <t>anniegrace2015</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d627514-r293013417-WoodSpring_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>293013417</t>
+  </si>
+  <si>
+    <t>07/27/2015</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t>I stayed here with my 3 boys (ages 5, 9, and 13.  We were pleased with how clean and quiet our double room was.  The employees were all pleasant and helpful to us.  To keep the prices low, it is very minimal.  We were there only 1 week for vacation, and I had planned well in advance after reading previous reviews.  When we checked in, the office was already closed, but you can pick up the phone on the wall and someone will come right away to check you in or deal with problems if they arise. They only clean once a week, and you can purchase a coffee pot for $19 and a dish/pot pack for $35.  If you choose to do this, they are yours to keep.  Because of the full sized fridge and freezer, microwave, and 2 burner stove, we hardly ate out at all.  This really helped us eat healthier and kept our spending down.  I brought some dry goods from home and then made a trip to the grocery store for some items to make easy meals that I had planned for the week.  Other items we brought that were helpful:  a multi- purpose cleaner, a sponge, cleaning rags, paper towels and extra toilet paper just in case, dish towels, paper plates, bowls, and plastic utensils, a little dust pan and brush, liquid dish soap, extra bath towels, laundry soap, roll of quarters for laundry...I stayed here with my 3 boys (ages 5, 9, and 13.  We were pleased with how clean and quiet our double room was.  The employees were all pleasant and helpful to us.  To keep the prices low, it is very minimal.  We were there only 1 week for vacation, and I had planned well in advance after reading previous reviews.  When we checked in, the office was already closed, but you can pick up the phone on the wall and someone will come right away to check you in or deal with problems if they arise. They only clean once a week, and you can purchase a coffee pot for $19 and a dish/pot pack for $35.  If you choose to do this, they are yours to keep.  Because of the full sized fridge and freezer, microwave, and 2 burner stove, we hardly ate out at all.  This really helped us eat healthier and kept our spending down.  I brought some dry goods from home and then made a trip to the grocery store for some items to make easy meals that I had planned for the week.  Other items we brought that were helpful:  a multi- purpose cleaner, a sponge, cleaning rags, paper towels and extra toilet paper just in case, dish towels, paper plates, bowls, and plastic utensils, a little dust pan and brush, liquid dish soap, extra bath towels, laundry soap, roll of quarters for laundry mat ($1.50-$2.00 for washing machines and $1.50 for dryers), crock pot, skillet, small pot, cutting board, couple of knives for chopping, spatulas, kitchen shears, some seasons, plastic containers for leftovers and sandwich bags.  Other items I wish I had brought was a little dust buster for vacuuming areas on the carpet as needed and more ice trays.  There are no ice machines in the building.We were on the third floor (the 4th floor is the only smoking floor).  The elevator worked great, lots of parking in a safe area.  It's right off Loop 820, near restaurants other hotels, and a gas station.  There is some construction going on in the area, but it wasn't hard to go around and we never heard any noise from it.  The cabinets in our room were showing some wear, but the carpet looked new.  I was glad no pets are allowed because of allergies in our family.  There were certainly no frills, but it served its purpose perfectly for us.  We were thankful for the lower cost and didn't mind planning a bit more so we could have lots of fun during each day.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>I stayed here with my 3 boys (ages 5, 9, and 13.  We were pleased with how clean and quiet our double room was.  The employees were all pleasant and helpful to us.  To keep the prices low, it is very minimal.  We were there only 1 week for vacation, and I had planned well in advance after reading previous reviews.  When we checked in, the office was already closed, but you can pick up the phone on the wall and someone will come right away to check you in or deal with problems if they arise. They only clean once a week, and you can purchase a coffee pot for $19 and a dish/pot pack for $35.  If you choose to do this, they are yours to keep.  Because of the full sized fridge and freezer, microwave, and 2 burner stove, we hardly ate out at all.  This really helped us eat healthier and kept our spending down.  I brought some dry goods from home and then made a trip to the grocery store for some items to make easy meals that I had planned for the week.  Other items we brought that were helpful:  a multi- purpose cleaner, a sponge, cleaning rags, paper towels and extra toilet paper just in case, dish towels, paper plates, bowls, and plastic utensils, a little dust pan and brush, liquid dish soap, extra bath towels, laundry soap, roll of quarters for laundry...I stayed here with my 3 boys (ages 5, 9, and 13.  We were pleased with how clean and quiet our double room was.  The employees were all pleasant and helpful to us.  To keep the prices low, it is very minimal.  We were there only 1 week for vacation, and I had planned well in advance after reading previous reviews.  When we checked in, the office was already closed, but you can pick up the phone on the wall and someone will come right away to check you in or deal with problems if they arise. They only clean once a week, and you can purchase a coffee pot for $19 and a dish/pot pack for $35.  If you choose to do this, they are yours to keep.  Because of the full sized fridge and freezer, microwave, and 2 burner stove, we hardly ate out at all.  This really helped us eat healthier and kept our spending down.  I brought some dry goods from home and then made a trip to the grocery store for some items to make easy meals that I had planned for the week.  Other items we brought that were helpful:  a multi- purpose cleaner, a sponge, cleaning rags, paper towels and extra toilet paper just in case, dish towels, paper plates, bowls, and plastic utensils, a little dust pan and brush, liquid dish soap, extra bath towels, laundry soap, roll of quarters for laundry mat ($1.50-$2.00 for washing machines and $1.50 for dryers), crock pot, skillet, small pot, cutting board, couple of knives for chopping, spatulas, kitchen shears, some seasons, plastic containers for leftovers and sandwich bags.  Other items I wish I had brought was a little dust buster for vacuuming areas on the carpet as needed and more ice trays.  There are no ice machines in the building.We were on the third floor (the 4th floor is the only smoking floor).  The elevator worked great, lots of parking in a safe area.  It's right off Loop 820, near restaurants other hotels, and a gas station.  There is some construction going on in the area, but it wasn't hard to go around and we never heard any noise from it.  The cabinets in our room were showing some wear, but the carpet looked new.  I was glad no pets are allowed because of allergies in our family.  There were certainly no frills, but it served its purpose perfectly for us.  We were thankful for the lower cost and didn't mind planning a bit more so we could have lots of fun during each day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d627514-r256359055-WoodSpring_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>256359055</t>
+  </si>
+  <si>
+    <t>02/25/2015</t>
+  </si>
+  <si>
+    <t>Nice Home Before a Home!</t>
+  </si>
+  <si>
+    <t>We stayed here last spring when we were passing through, and were happy to return this year.  We plan on staying until we find a long-term place to stay.Wayne is a treasure.  Michael is professional, and cordial.  Despite the regular turnover here, the property remains consistently in good condition: clean, safe, convenient and well-organized.Good job, guys and gals!</t>
+  </si>
+  <si>
+    <t>February 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d627514-r249131785-WoodSpring_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -255,9 +339,6 @@
     <t>I had a longer than expected stay at this wonderful little Value Place. The staff is always friendly and Michael is professional, and kind. I would have expected that since my stay was longer than I originally thought I might have had to have a room change or any other unexpected difficulty. Yet Michael and his staff have ensured that I remain in the most comfortable and easy way for me to extend my days. If a week or a day or two.  The rooms are clean, they try to ensure quiet for guests and I have never felt unsafe in any way. This is the BEST place to stay in the area, even some surrounding hotels that cost a bit more cannot compare.   When you add it up , this equals to THE BEST VALUE!Ill be happy to have my new home , but until then Thank you Value Place for a GREAT )PLACE TO STAY !!!More</t>
   </si>
   <si>
-    <t>Pilotgod</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d627514-r235436015-WoodSpring_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -279,9 +360,6 @@
     <t>Came back to town for a friend's wedding and just needed someplace with a bed and a shower. The rooms are adequate on size, the fridge is full size, and the kitchenette has a full sink and a 2 burner electric stove in the counter. There is a small microwave in the counter above the sink.  If you need dishes, bring your own or buy a "dish pack" from the staff for $35. Want a coffee pot? That's $20, but yours to keep.  I didn't need any extra amenities so I had no problems. There is a reason the prices are so good, there are no frills. No pool, no spa, no gym, no room service, and no housekeeping everyday unless you pay for that. This sounds bad at first, but if you don't want or need it (I didn't) then you can go without and save a little cash.  My only complaint, and one I feel worthy of taking a point for is the bed is VERY HARD. I prefer a stiff bed, but this was non giving and difficult to sleep on. Better than sleeping in the rental car though.More</t>
   </si>
   <si>
-    <t xml:space="preserve">angelbaby1124 </t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d627514-r233492070-WoodSpring_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -300,7 +378,43 @@
     <t>Rooms great...dont agree with cleaning every 2 weeks people dont carry mops brooms and vaccum cleaners with them while traveling....bring your own towels or else they will end up charging you after only exchanging them every 2weeks...And God forbid dont run out of toilet paper and Ask to buy a roll becAuse they will tell you they dont have any extra....yeah right....And some could use an attitude adjustment the front desk. More</t>
   </si>
   <si>
-    <t>angelkwill</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d627514-r228681943-WoodSpring_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>228681943</t>
+  </si>
+  <si>
+    <t>09/13/2014</t>
+  </si>
+  <si>
+    <t>great hotel and staff</t>
+  </si>
+  <si>
+    <t>Michael was great made me feel right at home. The hotel was clean and safe. The staff was friendly and helpful. I really enjoyed my stay. The next time I'm in town I will be staying at Value Place Fossil CreekMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Sean A, Manager at WoodSpring Suites Fort Worth Fossil Creek, responded to this reviewResponded February 25, 2015</t>
+  </si>
+  <si>
+    <t>Michael was great made me feel right at home. The hotel was clean and safe. The staff was friendly and helpful. I really enjoyed my stay. The next time I'm in town I will be staying at Value Place Fossil CreekMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d627514-r215693692-WoodSpring_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>215693692</t>
+  </si>
+  <si>
+    <t>07/16/2014</t>
+  </si>
+  <si>
+    <t>Great Value, clean rooms, great staff.</t>
+  </si>
+  <si>
+    <t>This is overall the nicest extended stay, budget friendly and guest friendly place I have ever stayed at.  The manager Michael has gone above and beyond to ensure that  my stay here has been an enjoyable experience. The staff have all been extremely courteous. Overall I will recommend Value Place to friends and family members.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d627514-r173023904-WoodSpring_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -324,9 +438,6 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>SteveCollins1</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d627514-r172267905-WoodSpring_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -342,9 +453,6 @@
     <t>The staff here is wonderful, I am always greeted with a smile and they are very professional. I was just in MO. on vacation/business and I would have loved to stay at Value Place but couldn't locate one close by. Value Place is the first place I look for when I land.</t>
   </si>
   <si>
-    <t>Debitthompson</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d627514-r140335334-WoodSpring_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -366,7 +474,34 @@
     <t>Price, amenities, cleanliness, were all what I had expected and hoped for. It was the staff that made it above average.  Thoughtful, cheerful and always working!  No slugs at this place.  Not once, not twice but at least three times the staff went out of their way to assist us.  Nice to see now days.  Only thing we had a probelms with was the internet cable situation.  Loved that they had "hard wire" as speed and connectivity are so important to our business.  Only problem is that in order to work effeciently, we use multiple devices so we bring our own "locked" router in order to have wifi.  The hotel's cable set up did not allow for personal wifi use.  Next time we'll call ahead and see if we can arrange to use our own, personally locked wifi access.  Other than that, it was a great experience.More</t>
   </si>
   <si>
-    <t>Julie F</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d627514-r139565823-WoodSpring_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>139565823</t>
+  </si>
+  <si>
+    <t>09/06/2012</t>
+  </si>
+  <si>
+    <t>The manager Adam was outstanding!!!</t>
+  </si>
+  <si>
+    <t>The manger Adam, went above and beyond what his job was. He was kind and understanding to those who work at night and sleep all day. Never had any problems with the staff or my stay. The house keeper always did a fantastic job, always was so clean when she finished! I wish the corporate would contact me so I could tell them everything I have to say about this great place! Nice people, nice place, nice rooms! Recommend it to anyone! My names josh hooks and those people you have over there are awesome. Joshmhooks@aol.com, get at me corporate!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d627514-r122739433-WoodSpring_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>122739433</t>
+  </si>
+  <si>
+    <t>01/07/2012</t>
+  </si>
+  <si>
+    <t>Not bad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed here for 4. Days  and it wasn't that bad except for the fact that there is no coffee pot in the room and it cost 10 bucks to use the internet and it sucks. It's an alright  place </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d627514-r122082704-WoodSpring_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -385,12 +520,6 @@
   </si>
   <si>
     <t>December 2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>BlueFW</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d627514-r117811954-WoodSpring_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -922,172 +1051,164 @@
       <c r="A2" t="n">
         <v>55764</v>
       </c>
-      <c r="B2" t="n">
-        <v>182570</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>55764</v>
       </c>
-      <c r="B3" t="n">
-        <v>182571</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" t="s">
-        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>1</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>55764</v>
       </c>
-      <c r="B4" t="n">
-        <v>175446</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="J4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" t="s">
-        <v>68</v>
-      </c>
       <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
@@ -1100,63 +1221,59 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>55764</v>
       </c>
-      <c r="B5" t="n">
-        <v>182572</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
         <v>69</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="K5" t="s">
         <v>70</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>71</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>72</v>
       </c>
-      <c r="K5" t="s">
+      <c r="O5" t="s">
         <v>73</v>
       </c>
-      <c r="L5" t="s">
-        <v>74</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>75</v>
-      </c>
-      <c r="O5" t="s">
-        <v>62</v>
-      </c>
-      <c r="P5" t="s"/>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
       <c r="Q5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>4</v>
-      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
         <v>5</v>
@@ -1164,280 +1281,236 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>76</v>
-      </c>
-      <c r="X5" t="s">
-        <v>77</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>55764</v>
       </c>
-      <c r="B6" t="n">
-        <v>182573</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>79</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K6" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" t="s">
-        <v>84</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>75</v>
-      </c>
       <c r="O6" t="s">
-        <v>85</v>
-      </c>
-      <c r="P6" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>76</v>
-      </c>
-      <c r="X6" t="s">
-        <v>77</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>55764</v>
       </c>
-      <c r="B7" t="n">
-        <v>182574</v>
-      </c>
-      <c r="C7" t="s">
-        <v>87</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s"/>
       <c r="O7" t="s"/>
-      <c r="P7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3</v>
-      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>2</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>76</v>
-      </c>
-      <c r="X7" t="s">
-        <v>77</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>55764</v>
       </c>
-      <c r="B8" t="n">
-        <v>182575</v>
-      </c>
-      <c r="C8" t="s">
-        <v>94</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="O8" t="s">
-        <v>101</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>55764</v>
       </c>
-      <c r="B9" t="n">
-        <v>182576</v>
-      </c>
-      <c r="C9" t="s">
-        <v>102</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>4</v>
-      </c>
-      <c r="R9" t="n">
-        <v>4</v>
-      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1445,66 +1518,58 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>55764</v>
       </c>
-      <c r="B10" t="n">
-        <v>182577</v>
-      </c>
-      <c r="C10" t="s">
-        <v>108</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="n">
-        <v>5</v>
-      </c>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
@@ -1513,152 +1578,727 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>104</v>
+      </c>
+      <c r="X10" t="s">
+        <v>105</v>
+      </c>
       <c r="Y10" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>55764</v>
       </c>
-      <c r="B11" t="n">
-        <v>3981</v>
-      </c>
-      <c r="C11" t="s">
-        <v>116</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O11" t="s">
-        <v>123</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>4</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>104</v>
+      </c>
+      <c r="X11" t="s">
+        <v>105</v>
+      </c>
       <c r="Y11" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>55764</v>
       </c>
-      <c r="B12" t="n">
-        <v>182578</v>
-      </c>
-      <c r="C12" t="s">
-        <v>124</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="J12" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="K12" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>130</v>
-      </c>
-      <c r="O12" t="s">
-        <v>101</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
       <c r="P12" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
+        <v>104</v>
+      </c>
+      <c r="X12" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>55764</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>126</v>
+      </c>
+      <c r="X13" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>55764</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>129</v>
+      </c>
+      <c r="J14" t="s">
+        <v>130</v>
+      </c>
+      <c r="K14" t="s">
         <v>131</v>
       </c>
-      <c r="X12" t="s">
+      <c r="L14" t="s">
         <v>132</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>55764</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
         <v>133</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L15" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>138</v>
+      </c>
+      <c r="O15" t="s">
+        <v>139</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>55764</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>55764</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" t="s">
+        <v>147</v>
+      </c>
+      <c r="K17" t="s">
+        <v>148</v>
+      </c>
+      <c r="L17" t="s">
+        <v>149</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>150</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>55764</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>153</v>
+      </c>
+      <c r="J18" t="s">
+        <v>154</v>
+      </c>
+      <c r="K18" t="s">
+        <v>155</v>
+      </c>
+      <c r="L18" t="s">
+        <v>156</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>55764</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>158</v>
+      </c>
+      <c r="J19" t="s">
+        <v>159</v>
+      </c>
+      <c r="K19" t="s">
+        <v>160</v>
+      </c>
+      <c r="L19" t="s">
+        <v>161</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>55764</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>163</v>
+      </c>
+      <c r="J20" t="s">
+        <v>164</v>
+      </c>
+      <c r="K20" t="s">
+        <v>165</v>
+      </c>
+      <c r="L20" t="s">
+        <v>166</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>167</v>
+      </c>
+      <c r="O20" t="s">
+        <v>73</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>55764</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>169</v>
+      </c>
+      <c r="J21" t="s">
+        <v>170</v>
+      </c>
+      <c r="K21" t="s">
+        <v>171</v>
+      </c>
+      <c r="L21" t="s">
+        <v>172</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>173</v>
+      </c>
+      <c r="O21" t="s">
+        <v>139</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>174</v>
+      </c>
+      <c r="X21" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
